--- a/target/classes/com/qa/data/API_TestData.xlsx
+++ b/target/classes/com/qa/data/API_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="StatusCode" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>404 Not Found</t>
   </si>
   <si>
-    <t>91475</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>/items[0]/owner/login</t>
+  </si>
+  <si>
+    <t>91554</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -544,7 +544,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -647,39 +649,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
